--- a/metadata/basin_atlas_fields.xlsx
+++ b/metadata/basin_atlas_fields.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/_edop/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB1A6E3-0AE9-504B-9693-18FC01EC3096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93AA590-0A49-F445-8BA1-8B1DC4651158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="680" windowWidth="26840" windowHeight="15920" xr2:uid="{101C2C76-074E-5746-8141-BBFF589BF012}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1197,9 +1198,10 @@
   <cols>
     <col min="1" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="8" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -2580,4 +2582,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49368B42-0025-CE49-BE0A-A1403FE05E2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>